--- a/tut06/output/2001EE76.xlsx
+++ b/tut06/output/2001EE76.xlsx
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +537,9 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -558,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -579,7 +581,9 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -666,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -687,7 +691,9 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -708,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +735,9 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -750,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -793,7 +801,9 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -880,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -901,7 +911,9 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
